--- a/municipal/სასტუმროები/სტუმრები/იმერეთი/ხარაგაული.xlsx
+++ b/municipal/სასტუმროები/სტუმრები/იმერეთი/ხარაგაული.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\4 სტუმრები\იმერეთი\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\სასტუმროები\სტუმრები\იმერეთი\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="16">
   <si>
     <t>(კაცი)</t>
   </si>
@@ -56,9 +56,6 @@
     <t>მათ შორის: ევროკავშირის ქვეყნებიდან</t>
   </si>
   <si>
-    <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ხარაგაულის მუნიციპალიტეტი</t>
-  </si>
-  <si>
     <t>საქართველოდან</t>
   </si>
   <si>
@@ -70,12 +67,60 @@
   <si>
     <t xml:space="preserve">                       სხვა ქვეყნებიდან</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">* </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>საქართველოს კანონმდებლობის შესაბამისად დარეგისტრირებული იურიდიული პირები და ინდივიდუალური მეწარმეები(ადგილობრივი ერთეულებისა და ფილიალების ჩათვლით).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>სასტუმროებსა და სასტუმროს ტიპის დაწესებულებებში</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t>*</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Sylfaen"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> სტუმართა რაოდენობა ჩამოსვლის ადგილისა და მიზნის მიხედვით ხარაგაულის მუნიციპალიტეტში</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +201,20 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -248,7 +307,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -341,14 +400,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -632,7 +694,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI87"/>
+  <dimension ref="A1:BI88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -650,7 +712,7 @@
   <sheetData>
     <row r="1" spans="1:61" s="26" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="36"/>
@@ -717,26 +779,26 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
-      <c r="O2" s="41"/>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="40"/>
+      <c r="L2" s="40"/>
+      <c r="M2" s="40"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
       <c r="V2" s="39"/>
       <c r="W2" s="39"/>
       <c r="X2" s="39"/>
@@ -854,14 +916,14 @@
       <c r="BI3" s="8"/>
     </row>
     <row r="4" spans="1:61" s="33" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40">
+      <c r="A4" s="42">
         <v>2010</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -940,7 +1002,7 @@
     </row>
     <row r="6" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="14">
         <v>65</v>
@@ -960,7 +1022,7 @@
     </row>
     <row r="7" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>8</v>
@@ -1000,7 +1062,7 @@
     </row>
     <row r="9" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>8</v>
@@ -1020,7 +1082,7 @@
     </row>
     <row r="10" spans="1:61" s="26" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="17" t="s">
         <v>8</v>
@@ -1125,7 +1187,7 @@
     </row>
     <row r="13" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="14">
         <v>296</v>
@@ -1145,7 +1207,7 @@
     </row>
     <row r="14" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="14">
         <v>16</v>
@@ -1185,7 +1247,7 @@
     </row>
     <row r="16" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="14">
         <v>14</v>
@@ -1205,7 +1267,7 @@
     </row>
     <row r="17" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B17" s="17" t="s">
         <v>8</v>
@@ -1310,7 +1372,7 @@
     </row>
     <row r="20" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="14">
         <v>412</v>
@@ -1330,7 +1392,7 @@
     </row>
     <row r="21" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>8</v>
@@ -1370,7 +1432,7 @@
     </row>
     <row r="23" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>8</v>
@@ -1390,7 +1452,7 @@
     </row>
     <row r="24" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="17" t="s">
         <v>8</v>
@@ -1495,7 +1557,7 @@
     </row>
     <row r="27" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27" s="14">
         <v>343</v>
@@ -1515,7 +1577,7 @@
     </row>
     <row r="28" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="14">
         <v>7</v>
@@ -1555,7 +1617,7 @@
     </row>
     <row r="30" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B30" s="14">
         <v>6</v>
@@ -1575,7 +1637,7 @@
     </row>
     <row r="31" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="21" t="s">
         <v>8</v>
@@ -1640,7 +1702,7 @@
     </row>
     <row r="34" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="14">
         <v>331</v>
@@ -1660,7 +1722,7 @@
     </row>
     <row r="35" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B35" s="14">
         <v>14</v>
@@ -1700,7 +1762,7 @@
     </row>
     <row r="37" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B37" s="14">
         <v>13</v>
@@ -1720,7 +1782,7 @@
     </row>
     <row r="38" spans="1:61" s="34" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="21">
         <v>120</v>
@@ -1905,7 +1967,7 @@
     </row>
     <row r="41" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B41" s="14">
         <v>410</v>
@@ -1925,7 +1987,7 @@
     </row>
     <row r="42" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B42" s="14">
         <v>19</v>
@@ -1965,7 +2027,7 @@
     </row>
     <row r="44" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B44" s="14" t="s">
         <v>8</v>
@@ -1985,7 +2047,7 @@
     </row>
     <row r="45" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" s="21" t="s">
         <v>8</v>
@@ -2145,7 +2207,7 @@
     </row>
     <row r="48" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B48" s="14">
         <v>380</v>
@@ -2165,7 +2227,7 @@
     </row>
     <row r="49" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B49" s="14">
         <v>18</v>
@@ -2205,7 +2267,7 @@
     </row>
     <row r="51" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B51" s="16" t="s">
         <v>8</v>
@@ -2225,7 +2287,7 @@
     </row>
     <row r="52" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" s="17" t="s">
         <v>8</v>
@@ -2330,7 +2392,7 @@
     </row>
     <row r="55" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B55" s="14">
         <v>263</v>
@@ -2350,7 +2412,7 @@
     </row>
     <row r="56" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B56" s="14">
         <v>36</v>
@@ -2390,7 +2452,7 @@
     </row>
     <row r="58" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B58" s="14">
         <v>32</v>
@@ -2410,7 +2472,7 @@
     </row>
     <row r="59" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B59" s="21">
         <v>1</v>
@@ -2515,7 +2577,7 @@
     </row>
     <row r="62" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B62" s="14">
         <v>399</v>
@@ -2535,7 +2597,7 @@
     </row>
     <row r="63" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B63" s="14">
         <v>114</v>
@@ -2575,7 +2637,7 @@
     </row>
     <row r="65" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B65" s="14">
         <v>49</v>
@@ -2595,7 +2657,7 @@
     </row>
     <row r="66" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B66" s="21">
         <v>44</v>
@@ -2700,7 +2762,7 @@
     </row>
     <row r="69" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B69" s="14">
         <v>548</v>
@@ -2720,7 +2782,7 @@
     </row>
     <row r="70" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70" s="14">
         <v>22</v>
@@ -2760,7 +2822,7 @@
     </row>
     <row r="72" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B72" s="14">
         <v>2</v>
@@ -2780,7 +2842,7 @@
     </row>
     <row r="73" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>8</v>
@@ -2885,7 +2947,7 @@
     </row>
     <row r="76" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B76" s="16" t="s">
         <v>8</v>
@@ -2905,7 +2967,7 @@
     </row>
     <row r="77" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B77" s="16" t="s">
         <v>8</v>
@@ -2945,7 +3007,7 @@
     </row>
     <row r="79" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B79" s="16" t="s">
         <v>8</v>
@@ -2965,7 +3027,7 @@
     </row>
     <row r="80" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B80" s="17" t="s">
         <v>8</v>
@@ -3070,7 +3132,7 @@
     </row>
     <row r="83" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B83" s="14">
         <v>510</v>
@@ -3090,7 +3152,7 @@
     </row>
     <row r="84" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B84" s="14">
         <v>292</v>
@@ -3130,7 +3192,7 @@
     </row>
     <row r="86" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B86" s="14">
         <v>87</v>
@@ -3150,7 +3212,7 @@
     </row>
     <row r="87" spans="1:61" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" s="21">
         <v>30</v>
@@ -3168,8 +3230,34 @@
         <v>8</v>
       </c>
     </row>
+    <row r="88" spans="1:61" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B88" s="43"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
+      <c r="E88" s="43"/>
+      <c r="F88" s="43"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="25">
+    <mergeCell ref="A88:F88"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A53:F53"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="AZ2:BD2"/>
+    <mergeCell ref="BE2:BI2"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="AP2:AT2"/>
+    <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="AA2:AE2"/>
@@ -3179,21 +3267,6 @@
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="L2:P2"/>
-    <mergeCell ref="AZ2:BD2"/>
-    <mergeCell ref="BE2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="AP2:AT2"/>
-    <mergeCell ref="AU2:AY2"/>
-    <mergeCell ref="A74:F74"/>
-    <mergeCell ref="A81:F81"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A46:F46"/>
-    <mergeCell ref="A53:F53"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A67:F67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
